--- a/tools/qemu/qemu_img/fmt.xlsx
+++ b/tools/qemu/qemu_img/fmt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="9540" windowHeight="8325"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="9540" windowHeight="8325" tabRatio="860" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="qcow2-cluster.c" sheetId="8" r:id="rId8"/>
     <sheet name="qcow2-snapshot.c" sheetId="9" r:id="rId9"/>
     <sheet name="qemu-img" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="2233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3491" uniqueCount="2296">
   <si>
     <t>没有分区</t>
     <phoneticPr fontId="1"/>
@@ -8182,6 +8184,1020 @@
     <t>info</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">一个典型的 qcow2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>镜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>像文件包含一下几部分：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>上文中提到的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>部信息</t>
+    </r>
+  </si>
+  <si>
+    <t>L1 表</t>
+  </si>
+  <si>
+    <t>refcount 表</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">一个或者多个 refcount </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>块</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>快照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头</t>
+    </r>
+  </si>
+  <si>
+    <t>L2 表</t>
+  </si>
+  <si>
+    <t>数据 cluster</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>找</t>
+    </r>
+  </si>
+  <si>
+    <t>低 12 位是一个 4Kb cluster 的偏移（2 的 12 次方=4Kb）；</t>
+  </si>
+  <si>
+    <r>
+      <t>接下来 9 位是包含 512 个表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>目的 L2 表；</t>
+    </r>
+  </si>
+  <si>
+    <t>剩下 43 位的代表 L1 表偏移量。</t>
+  </si>
+  <si>
+    <r>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>取一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>定地址（64 位）的偏移位置：</t>
+    </r>
+  </si>
+  <si>
+    <t>从 Head 域中的 l1_table_offset 取得 L1 表的地址</t>
+  </si>
+  <si>
+    <t>用前（64-l2_bits-cluster_bits）位地址去索引 L1 表</t>
+  </si>
+  <si>
+    <r>
+      <t>在 L1 表中的偏移量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>得 L2 表的地址</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用地址中的接下来的 l2_bits 去索引 L2 表，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>得一个 64 位的表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用 L2 表中的偏移量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>得 cluster 的地址</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用地址中剩下的 cluster_bits 位去索引</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> cluster，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>块</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果 L1 表和 L2 表中的偏移量都是空，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>区域就尚未被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>镜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>像文件分配。</t>
+    </r>
+  </si>
+  <si>
+    <t>注意 L1 表和 L2 表中的偏移量的前两位被保留，用做表示'copied' 或'compressed'。</t>
+  </si>
+  <si>
+    <t>the lower 12 is an offset within a 4Kb cluster</t>
+  </si>
+  <si>
+    <t>the next 9 bits is an offset within a 512 entry array of 8 byte file offsets, the L2 table. The number of bits needed here is given by l2_bits = cluster_bits - 3 since the L2 table is a single cluster containing 8 byte entries</t>
+  </si>
+  <si>
+    <t>the remaining 43 bits is an offset within another array of 8 byte file offsets, the L1 table</t>
+  </si>
+  <si>
+    <r>
+      <t>在 qcow2 中，磁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的内容是保存在 cluster 中（每个 cluster 包含一些大小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 512 字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的扇区）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>了找到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>定地址所在的 cluster，我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>找两</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表，L1-&gt;L2。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>L1 表保存一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>到 L2 表的偏移量，L2 表保存一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>到 cluster 的偏移量；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>所以一个地址（64 位）要根据 cluster_bits的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>置分成 3 部分，比如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> cluster_bits=12；</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>版本2的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>话，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>72字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节大小，占用一个簇。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>8字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节表项，表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>簇地址。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>个数由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>镜像文件的大小决定。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（镜像文件大小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> + 2 ^ (簇位数+表2位数)次方）/ 2 ^ (簇位数+表2位数)次方</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计数表</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>8字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节表项，引用计数块的簇地址。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>个数由簇位数决定。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簇位数 &gt;&gt; 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引用块表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节表项，标记镜像文件每个簇的使用状况。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大小？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>占用完整的簇。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>8字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节簇地址。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+  </si>
+  <si>
+    <t>簇大小位数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2位数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\qemu\qemu0.15.1&gt;C:\qemu\qemu0.15.1\qemu-img create -f qcow2 qcow2_4g_1k.qcow2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4194305K</t>
+  </si>
+  <si>
+    <t>Formatting 'qcow2_4g_1k.qcow2', fmt=qcow2 size=4294968320 encryption=off cluster</t>
+  </si>
+  <si>
+    <t>_size=65536</t>
+  </si>
+  <si>
+    <t>C:\qemu\qemu0.15.1&gt;</t>
+  </si>
+  <si>
+    <t>C:\qemu\qemu0.15.1&gt;C:\qemu\qemu0.15.1\qemu-img create -f qcow2 qcow2_4g.qcow2 4G</t>
+  </si>
+  <si>
+    <t>Formatting 'qcow2_4g.qcow2', fmt=qcow2 size=4294967296 encryption=off cluster_si</t>
+  </si>
+  <si>
+    <t>ze=65536</t>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>600m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4g</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -8286,7 +9302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8327,6 +9343,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9192,10 +10214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="L90:Q245"/>
+  <dimension ref="A90:Q320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="N251" sqref="N251"/>
+    <sheetView topLeftCell="A296" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A321" sqref="A321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9347,6 +10369,51 @@
       <c r="N245" t="str">
         <f>DEC2HEX(N244)</f>
         <v>1000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>2286</v>
       </c>
     </row>
   </sheetData>
@@ -9397,12 +10464,624 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:O33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="7" max="7" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15">
+      <c r="F1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <f>G1*8</f>
+        <v>32</v>
+      </c>
+      <c r="I1">
+        <f>POWER(2,H1)</f>
+        <v>4294967296</v>
+      </c>
+      <c r="J1">
+        <f>I1/2-1</f>
+        <v>2147483647</v>
+      </c>
+      <c r="K1">
+        <f>J1/1024</f>
+        <v>2097151.9990234375</v>
+      </c>
+      <c r="L1">
+        <f>K1/1024</f>
+        <v>2047.9999990463257</v>
+      </c>
+      <c r="M1">
+        <f>L1/1024</f>
+        <v>1.9999999990686774</v>
+      </c>
+      <c r="N1">
+        <v>4294968320</v>
+      </c>
+      <c r="O1" t="str">
+        <f>DEC2HEX(N1)</f>
+        <v>100000400</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15">
+      <c r="I2" t="s">
+        <v>2291</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2292</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2294</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2293</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="H3">
+        <f>POWER(2,9)</f>
+        <v>512</v>
+      </c>
+      <c r="I3">
+        <f>POWER(2,21)</f>
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="H4">
+        <v>4096</v>
+      </c>
+      <c r="I4">
+        <f>2*1024*1024</f>
+        <v>2097152</v>
+      </c>
+      <c r="J4">
+        <f>10*1024*1024</f>
+        <v>10485760</v>
+      </c>
+      <c r="K4">
+        <f>20*1024*1024</f>
+        <v>20971520</v>
+      </c>
+      <c r="L4">
+        <f>600*1024*1024</f>
+        <v>629145600</v>
+      </c>
+      <c r="M4">
+        <f>4*1024*1024*1024</f>
+        <v>4294967296</v>
+      </c>
+      <c r="N4">
+        <f>M4/1024</f>
+        <v>4194304</v>
+      </c>
+      <c r="O4">
+        <f>N1-M4</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2261</v>
+      </c>
+      <c r="G5">
+        <v>72</v>
+      </c>
+      <c r="H5" s="4">
+        <f>INT(G5/$H$4)+IF(MOD(G5,$H$4)&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <f>H5</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:M5" si="0">I5</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2263</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2280</v>
+      </c>
+      <c r="H6">
+        <f>LOG(H4,2)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="C7" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2281</v>
+      </c>
+      <c r="H7">
+        <f>H6-3</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="H8">
+        <f>H6+H7</f>
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <f>INT((I4+$I$3-1)/$I$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f>INT((J4+$I$3-1)/$I$3)</f>
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <f>INT((K4+$I$3-1)/$I$3)</f>
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <f>INT((L4+$I$3-1)/$I$3)</f>
+        <v>300</v>
+      </c>
+      <c r="M8">
+        <f>INT((M4+$I$3-1)/$I$3)</f>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="C9" t="s">
+        <v>2265</v>
+      </c>
+      <c r="I9">
+        <f>I8*8</f>
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:M9" si="1">J8*8</f>
+        <v>40</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="I10" s="4">
+        <f>INT(I9/$H$4)+IF(MOD(I9,$H$4)&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" ref="J10:M10" si="2">INT(J9/$H$4)+IF(MOD(J9,$H$4)&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2267</v>
+      </c>
+      <c r="I11">
+        <f>I17*8</f>
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:M11" si="3">J17*8</f>
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="C12" t="s">
+        <v>2268</v>
+      </c>
+      <c r="I12" s="4">
+        <f>INT(I11/$H$4)+IF(MOD(I11,$H$4)&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" ref="J12:M12" si="4">INT(J11/$H$4)+IF(MOD(J11,$H$4)&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="C13" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="14" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2271</v>
+      </c>
+      <c r="I15">
+        <f>I4/$H$4</f>
+        <v>512</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:M15" si="5">J4/$H$4</f>
+        <v>2560</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>5120</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>153600</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="I16">
+        <f>I15*2</f>
+        <v>1024</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:M16" si="6">J15*2</f>
+        <v>5120</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>10240</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>307200</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="C17" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E17">
+        <v>4096</v>
+      </c>
+      <c r="I17" s="4">
+        <f>INT(I16/$H$4)+IF(MOD(I16,$H$4)&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" ref="J17:M17" si="7">INT(J16/$H$4)+IF(MOD(J16,$H$4)&gt;0,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="7"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="C18">
+        <f>4*1024*1024*1024/E17</f>
+        <v>1048576</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E18">
+        <f>E17/2</f>
+        <v>2048</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="C20" t="s">
+        <v>2274</v>
+      </c>
+      <c r="I20">
+        <f>(I5+I10+I12+I17)*$H$4</f>
+        <v>16384</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20:M20" si="8">(J5+J10+J12+J17)*$H$4</f>
+        <v>20480</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="8"/>
+        <v>24576</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="8"/>
+        <v>319488</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="8"/>
+        <v>2121728</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="C21" t="s">
+        <v>2275</v>
+      </c>
+      <c r="I21" s="15">
+        <v>16384</v>
+      </c>
+      <c r="J21" s="15">
+        <v>16384</v>
+      </c>
+      <c r="K21" s="15">
+        <v>16384</v>
+      </c>
+      <c r="L21" s="15">
+        <v>16384</v>
+      </c>
+      <c r="M21" s="15">
+        <v>28672</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="I22" s="15">
+        <f>I20-I21</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" ref="J22:M22" si="9">J20-J21</f>
+        <v>4096</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="9"/>
+        <v>8192</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="9"/>
+        <v>303104</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" si="9"/>
+        <v>2093056</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2277</v>
+      </c>
+      <c r="J23">
+        <f>J22/$H$4</f>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f>K22/$H$4</f>
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <f>L22/$H$4</f>
+        <v>74</v>
+      </c>
+      <c r="M23">
+        <f>M22/$H$4</f>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="C24" t="s">
+        <v>2275</v>
+      </c>
+      <c r="I24">
+        <f>I21/$H$4</f>
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:M24" si="10">J21/$H$4</f>
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" t="s">
+        <v>2278</v>
+      </c>
+      <c r="I25">
+        <f>I24-I12-I10-I5</f>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:M25" si="11">J24-J12-J10-J5</f>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="C28" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="C32" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="14" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="A26:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9982,10 +11661,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10300,6 +11979,46 @@
         <v>77</v>
       </c>
     </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>2240</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10309,10 +12028,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10535,9 +12254,222 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11" spans="1:27" ht="15.75">
+      <c r="A11" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75">
+      <c r="A12" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="14" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="14"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f>A30+B30-C30</f>
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <f>D30/B30</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f>A31+B31-C31</f>
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <f>D31/B31</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f>A32+B32-C32</f>
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <f>D32/B32</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:D34" si="0">A33+B33-C33</f>
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33:E34" si="1">D33/B33</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35" si="2">A35+B35-C35</f>
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35" si="3">D35/B35</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>2256</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21431,7 +23363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A889"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
+    <sheetView topLeftCell="A253" workbookViewId="0">
       <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>

--- a/tools/qemu/qemu_img/fmt.xlsx
+++ b/tools/qemu/qemu_img/fmt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="9540" windowHeight="8325" tabRatio="860" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="9540" windowHeight="8325" tabRatio="860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3491" uniqueCount="2296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3495" uniqueCount="2300">
   <si>
     <t>没有分区</t>
     <phoneticPr fontId="1"/>
@@ -9196,6 +9196,22 @@
   </si>
   <si>
     <t>4g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:Copied</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:Compress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 for standard clusters</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10217,7 +10233,7 @@
   <dimension ref="A90:Q320"/>
   <sheetViews>
     <sheetView topLeftCell="A296" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A321" sqref="A321"/>
+      <selection activeCell="S131" sqref="B122:S131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10468,7 +10484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I24" sqref="I24:M25"/>
     </sheetView>
   </sheetViews>
@@ -11661,10 +11677,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B53" sqref="B52:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12019,6 +12035,111 @@
         <v>2240</v>
       </c>
     </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <f>A49*A50</f>
+        <v>64</v>
+      </c>
+      <c r="B51">
+        <f>B49*B50+2</f>
+        <v>58</v>
+      </c>
+      <c r="C51">
+        <f>A51-B51</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="B53" s="4">
+        <v>63</v>
+      </c>
+      <c r="C53" s="4">
+        <v>62</v>
+      </c>
+      <c r="D53" s="1">
+        <v>61</v>
+      </c>
+      <c r="E53" s="1">
+        <v>60</v>
+      </c>
+      <c r="F53" s="1">
+        <f>E53-1</f>
+        <v>59</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" ref="G53:I53" si="1">F53-1</f>
+        <v>58</v>
+      </c>
+      <c r="H53" s="7">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="I53" s="7">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="B54" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12030,7 +12151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
@@ -12477,7 +12598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B213"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
